--- a/day7/day7_excel.xlsx
+++ b/day7/day7_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_learning\quest_python\day7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/964306422f792afb/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F888481-DC43-4BA9-8F04-99B0E70AD01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{A8F9E122-DD1D-4445-9409-ED1C79A86129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2F3C16E-6B47-469D-820E-90A3C94D2339}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E6C99AD-13A4-49A4-AEAD-3DD60F089893}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2E6C99AD-13A4-49A4-AEAD-3DD60F089893}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>Use case</t>
   </si>
@@ -192,18 +192,6 @@
     <t>student female with  residence pin and localite age &lt; 45</t>
   </si>
   <si>
-    <t>student female without  residence pin, hostel name, age &lt; 45</t>
-  </si>
-  <si>
-    <t>student female without residence pin, hostel age  &gt;= 45</t>
-  </si>
-  <si>
-    <t>student male without residence pin, hostel, age &lt; 45</t>
-  </si>
-  <si>
-    <t>student male without residence pin, hostel age &gt;= 45 and age &lt;= 60</t>
-  </si>
-  <si>
     <t>student female with  residence pin, localite, age  &gt;= 45</t>
   </si>
   <si>
@@ -222,7 +210,46 @@
     <t>100 coupon on titan, fastrack, 500 coupon on books</t>
   </si>
   <si>
-    <t>student male with residence pin, localitel age &gt;= 45 and age &lt;= 60</t>
+    <t>student female without residence pin, hostel name ,age  &gt;= 45</t>
+  </si>
+  <si>
+    <t>student male with residence pin, hostel name, age &lt; 45</t>
+  </si>
+  <si>
+    <t>student male with residence pin, hostel name, age &gt;= 45 and age &lt;= 60</t>
+  </si>
+  <si>
+    <t>student female with  residence pin, with hostel name, age &lt; 45</t>
+  </si>
+  <si>
+    <t>student male with residence pin, localite age &gt;= 45 and age &lt;= 60</t>
+  </si>
+  <si>
+    <t>100 rupees coupon on nyka,500 coupon for books,Groceries discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student female age &lt; 45 hosteller in given hostel and residence pin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">student female age &gt;= 45 hosteller in given hostel and residence pin </t>
+  </si>
+  <si>
+    <t>Senior citizen 15 percent discount</t>
+  </si>
+  <si>
+    <t>student male age &gt;=45 hosteller in given hostel and residence pin</t>
+  </si>
+  <si>
+    <t>student male age &gt;=45 and age &lt;= 60 hosteller in given hostel and residence pin</t>
+  </si>
+  <si>
+    <t>student male age &gt;= 60 hosteller in given hostel and residence number</t>
+  </si>
+  <si>
+    <t>student male age &lt; 45 hosteller in given hostel and reisdence number</t>
+  </si>
+  <si>
+    <t>100 coupon on titan, fastrack ,   500 coupon for books,   Groceries discount</t>
   </si>
 </sst>
 </file>
@@ -293,10 +320,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,20 +619,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11799831-58EA-49BD-9B53-71B8825F06E0}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" customWidth="1"/>
-    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="7" max="8" width="65.5546875" customWidth="1"/>
     <col min="9" max="9" width="33.21875" customWidth="1"/>
-    <col min="10" max="10" width="51.77734375" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -633,7 +656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -664,7 +687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -753,7 +776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -837,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -858,7 +881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -879,7 +902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -900,7 +923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -921,7 +944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -942,7 +965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -963,7 +986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1019,9 +1042,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>46</v>
@@ -1035,7 +1058,7 @@
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>37</v>
@@ -1047,9 +1070,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G21" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>47</v>
@@ -1063,7 +1086,7 @@
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>48</v>
@@ -1091,13 +1114,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>35</v>
@@ -1105,13 +1128,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>35</v>
@@ -1122,12 +1145,96 @@
         <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>35</v>
       </c>
     </row>
